--- a/data/atl.xlsx
+++ b/data/atl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clint\Documents\nss\Capstone\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FA4056-0AEB-4E4B-93BE-3D16049CB147}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB781C69-DC9D-4616-B104-8A577FEDE0D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11580" xr2:uid="{D2E13FDA-E432-4AB8-948F-432F5AC785A9}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{D2E13FDA-E432-4AB8-948F-432F5AC785A9}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="316">
   <si>
     <t>No.</t>
   </si>
@@ -506,9 +506,6 @@
     <t>UCLA</t>
   </si>
   <si>
-    <t>Julio Jones *</t>
-  </si>
-  <si>
     <t>Austin Hooper</t>
   </si>
   <si>
@@ -542,18 +539,12 @@
     <t>LLB</t>
   </si>
   <si>
-    <t>Deion Jones*</t>
-  </si>
-  <si>
     <t>MLB</t>
   </si>
   <si>
     <t>RLB</t>
   </si>
   <si>
-    <t>Keanu Neal*</t>
-  </si>
-  <si>
     <t>Ricky Ortiz</t>
   </si>
   <si>
@@ -569,12 +560,6 @@
     <t>Logan Paulsen</t>
   </si>
   <si>
-    <t>Austin Hooper*</t>
-  </si>
-  <si>
-    <t>Jake Matthews*</t>
-  </si>
-  <si>
     <t>Brandon Fusco</t>
   </si>
   <si>
@@ -698,9 +683,6 @@
     <t>Atlanta Falcons / 1st / 31st pick / 2019</t>
   </si>
   <si>
-    <t>Grady Jarrett*</t>
-  </si>
-  <si>
     <t>Tyeler Davison</t>
   </si>
   <si>
@@ -987,6 +969,15 @@
   </si>
   <si>
     <t>Atlanta Falcons / 7th / 228th pick / 2020</t>
+  </si>
+  <si>
+    <t>Julio Jones </t>
+  </si>
+  <si>
+    <t>DeVondre Campbell</t>
+  </si>
+  <si>
+    <t>$610,00</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F5A31C3-9D5F-4BDD-99A9-C0CB21C3084D}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -3694,10 +3685,13 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="2" max="2" width="23.31640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
@@ -3965,7 +3959,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>158</v>
+        <v>313</v>
       </c>
       <c r="C7">
         <v>28</v>
@@ -4053,7 +4047,7 @@
         <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C9">
         <v>23</v>
@@ -4086,7 +4080,7 @@
         <v>5</v>
       </c>
       <c r="M9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N9" s="3">
         <v>540000</v>
@@ -4185,7 +4179,7 @@
         <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>136</v>
+        <v>209</v>
       </c>
       <c r="C12">
         <v>32</v>
@@ -4229,7 +4223,7 @@
         <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C13">
         <v>24</v>
@@ -4262,7 +4256,7 @@
         <v>8</v>
       </c>
       <c r="M13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N13" s="3">
         <v>540000</v>
@@ -4358,13 +4352,13 @@
         <v>92</v>
       </c>
       <c r="B16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C16">
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E16">
         <v>16</v>
@@ -4379,7 +4373,7 @@
         <v>43985</v>
       </c>
       <c r="I16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J16" s="2">
         <v>33103</v>
@@ -4391,7 +4385,7 @@
         <v>7</v>
       </c>
       <c r="M16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N16" s="3">
         <v>7500000</v>
@@ -4408,7 +4402,7 @@
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E17">
         <v>16</v>
@@ -4446,7 +4440,7 @@
         <v>90</v>
       </c>
       <c r="B18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C18">
         <v>28</v>
@@ -4493,7 +4487,7 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E19">
         <v>14</v>
@@ -4531,13 +4525,13 @@
         <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="C20">
         <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E20">
         <v>16</v>
@@ -4581,7 +4575,7 @@
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E21">
         <v>16</v>
@@ -4751,7 +4745,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="C25">
         <v>22</v>
@@ -4800,10 +4794,13 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="2" max="2" width="18.26953125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
@@ -4942,7 +4939,7 @@
         <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C4">
         <v>24</v>
@@ -5027,13 +5024,13 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C6">
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E6">
         <v>16</v>
@@ -5060,7 +5057,7 @@
         <v>7</v>
       </c>
       <c r="M6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N6" s="3">
         <v>480000</v>
@@ -5071,7 +5068,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>158</v>
+        <v>313</v>
       </c>
       <c r="C7">
         <v>29</v>
@@ -5115,7 +5112,7 @@
         <v>82</v>
       </c>
       <c r="B8" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C8">
         <v>31</v>
@@ -5156,7 +5153,7 @@
         <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="C9">
         <v>24</v>
@@ -5189,7 +5186,7 @@
         <v>6</v>
       </c>
       <c r="M9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N9" s="3">
         <v>630000</v>
@@ -5200,7 +5197,7 @@
         <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>180</v>
+        <v>38</v>
       </c>
       <c r="C10">
         <v>26</v>
@@ -5244,7 +5241,7 @@
         <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C11">
         <v>25</v>
@@ -5277,7 +5274,7 @@
         <v>7</v>
       </c>
       <c r="M11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N11" s="3">
         <v>630000</v>
@@ -5288,7 +5285,7 @@
         <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>136</v>
+        <v>209</v>
       </c>
       <c r="C12">
         <v>33</v>
@@ -5332,7 +5329,7 @@
         <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C13">
         <v>30</v>
@@ -5353,7 +5350,7 @@
         <v>43986</v>
       </c>
       <c r="I13" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="J13" s="2">
         <v>32350</v>
@@ -5365,7 +5362,7 @@
         <v>4</v>
       </c>
       <c r="M13" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="N13" s="3">
         <v>2250000</v>
@@ -5376,13 +5373,13 @@
         <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C14">
         <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E14">
         <v>9</v>
@@ -5409,7 +5406,7 @@
         <v>3</v>
       </c>
       <c r="M14" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="N14" s="3">
         <v>484412</v>
@@ -5505,13 +5502,13 @@
         <v>99</v>
       </c>
       <c r="B17" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C17">
         <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E17">
         <v>13</v>
@@ -5526,7 +5523,7 @@
         <v>43984</v>
       </c>
       <c r="I17" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="J17" s="2">
         <v>32344</v>
@@ -5538,7 +5535,7 @@
         <v>2</v>
       </c>
       <c r="M17" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="N17" s="3">
         <v>825000</v>
@@ -5549,13 +5546,13 @@
         <v>95</v>
       </c>
       <c r="B18" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C18">
         <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E18">
         <v>16</v>
@@ -5582,7 +5579,7 @@
         <v>5</v>
       </c>
       <c r="M18" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="N18" s="3">
         <v>2250000</v>
@@ -5599,7 +5596,7 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E19">
         <v>14</v>
@@ -5681,7 +5678,7 @@
         <v>98</v>
       </c>
       <c r="B21" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C21">
         <v>23</v>
@@ -5714,7 +5711,7 @@
         <v>4</v>
       </c>
       <c r="M21" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="N21" s="3">
         <v>929388</v>
@@ -5725,13 +5722,13 @@
         <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C22">
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E22">
         <v>16</v>
@@ -5758,7 +5755,7 @@
         <v>4</v>
       </c>
       <c r="M22" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="N22" s="3">
         <v>616500</v>
@@ -5775,7 +5772,7 @@
         <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E23">
         <v>6</v>
@@ -5813,13 +5810,13 @@
         <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C24">
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E24">
         <v>16</v>
@@ -5834,7 +5831,7 @@
         <v>43984</v>
       </c>
       <c r="I24" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="J24" s="2">
         <v>34913</v>
@@ -5846,7 +5843,7 @@
         <v>4</v>
       </c>
       <c r="M24" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="N24" s="3">
         <v>480000</v>
@@ -5863,7 +5860,7 @@
         <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E25">
         <v>16</v>
@@ -5907,7 +5904,7 @@
         <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E26">
         <v>16</v>
@@ -6030,7 +6027,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C29">
         <v>25</v>
@@ -6051,7 +6048,7 @@
         <v>43962</v>
       </c>
       <c r="I29" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="J29" s="2">
         <v>34125</v>
@@ -6063,7 +6060,7 @@
         <v>5</v>
       </c>
       <c r="M29" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="N29" s="3">
         <v>555000</v>
@@ -6074,7 +6071,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C30">
         <v>25</v>
@@ -6107,7 +6104,7 @@
         <v>3</v>
       </c>
       <c r="M30" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="N30" s="3">
         <v>941121</v>
@@ -6123,10 +6120,13 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="2" max="2" width="25.2265625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
@@ -6265,13 +6265,13 @@
         <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C4">
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E4">
         <v>16</v>
@@ -6309,7 +6309,7 @@
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E5">
         <v>7</v>
@@ -6347,7 +6347,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C6">
         <v>25</v>
@@ -6380,7 +6380,7 @@
         <v>7</v>
       </c>
       <c r="M6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N6" s="3">
         <v>975487</v>
@@ -6391,7 +6391,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>158</v>
+        <v>313</v>
       </c>
       <c r="C7">
         <v>30</v>
@@ -6435,7 +6435,7 @@
         <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C8">
         <v>31</v>
@@ -6468,7 +6468,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="N8" s="3">
         <v>1400000</v>
@@ -6479,7 +6479,7 @@
         <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="C9">
         <v>25</v>
@@ -6512,7 +6512,7 @@
         <v>6</v>
       </c>
       <c r="M9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N9" s="3">
         <v>2025000</v>
@@ -6567,7 +6567,7 @@
         <v>77</v>
       </c>
       <c r="B11" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C11">
         <v>30</v>
@@ -6600,7 +6600,7 @@
         <v>5</v>
       </c>
       <c r="M11" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N11" s="3">
         <v>2000000</v>
@@ -6611,13 +6611,13 @@
         <v>71</v>
       </c>
       <c r="B12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C12">
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E12">
         <v>15</v>
@@ -6644,7 +6644,7 @@
         <v>4</v>
       </c>
       <c r="M12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N12" s="3">
         <v>2025000</v>
@@ -6655,7 +6655,7 @@
         <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C13">
         <v>34</v>
@@ -6699,13 +6699,13 @@
         <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C14">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E14">
         <v>5</v>
@@ -6732,7 +6732,7 @@
         <v>2</v>
       </c>
       <c r="M14" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="N14" s="3">
         <v>495000</v>
@@ -6743,7 +6743,7 @@
         <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C15">
         <v>26</v>
@@ -6764,7 +6764,7 @@
         <v>43986</v>
       </c>
       <c r="I15" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="J15" s="2">
         <v>34043</v>
@@ -6776,7 +6776,7 @@
         <v>4</v>
       </c>
       <c r="M15" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="N15" s="3">
         <v>2500000</v>
@@ -6787,7 +6787,7 @@
         <v>76</v>
       </c>
       <c r="B16" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C16">
         <v>24</v>
@@ -6820,7 +6820,7 @@
         <v>9</v>
       </c>
       <c r="M16" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="N16" s="3">
         <v>495000</v>
@@ -6831,7 +6831,7 @@
         <v>98</v>
       </c>
       <c r="B17" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C17">
         <v>24</v>
@@ -6864,7 +6864,7 @@
         <v>6</v>
       </c>
       <c r="M17" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="N17" s="3">
         <v>1393775</v>
@@ -6875,13 +6875,13 @@
         <v>97</v>
       </c>
       <c r="B18" t="s">
-        <v>222</v>
+        <v>116</v>
       </c>
       <c r="C18">
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E18">
         <v>16</v>
@@ -6919,13 +6919,13 @@
         <v>96</v>
       </c>
       <c r="B19" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C19">
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E19">
         <v>16</v>
@@ -6952,7 +6952,7 @@
         <v>6</v>
       </c>
       <c r="M19" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="N19" s="3">
         <v>805000</v>
@@ -7007,13 +7007,13 @@
         <v>93</v>
       </c>
       <c r="B21" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C21">
         <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E21">
         <v>15</v>
@@ -7040,7 +7040,7 @@
         <v>3</v>
       </c>
       <c r="M21" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="N21" s="3">
         <v>2750000</v>
@@ -7051,13 +7051,13 @@
         <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>143</v>
+        <v>314</v>
       </c>
       <c r="C22">
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E22">
         <v>16</v>
@@ -7101,7 +7101,7 @@
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E23">
         <v>16</v>
@@ -7139,7 +7139,7 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -7172,7 +7172,7 @@
         <v>5</v>
       </c>
       <c r="M24" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="N24" s="3">
         <v>690757</v>
@@ -7189,7 +7189,7 @@
         <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E25">
         <v>9</v>
@@ -7227,7 +7227,7 @@
         <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C26">
         <v>23</v>
@@ -7248,7 +7248,7 @@
         <v>43961</v>
       </c>
       <c r="I26" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="J26" s="2">
         <v>35215</v>
@@ -7260,7 +7260,7 @@
         <v>4</v>
       </c>
       <c r="M26" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="N26" s="3">
         <v>495000</v>
@@ -7315,7 +7315,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C28">
         <v>26</v>
@@ -7336,7 +7336,7 @@
         <v>43962</v>
       </c>
       <c r="I28" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="J28" s="2">
         <v>34125</v>
@@ -7348,7 +7348,7 @@
         <v>5</v>
       </c>
       <c r="M28" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="N28" s="3">
         <v>645000</v>
@@ -7361,2190 +7361,2033 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DE80EC-F783-4ECD-A6E9-11898BE9D05F}">
-  <dimension ref="A1:N54"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="29.04296875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="F2">
+        <v>245</v>
+      </c>
+      <c r="G2" s="1">
+        <v>43988</v>
+      </c>
+      <c r="H2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I2" s="2">
+        <v>29762</v>
+      </c>
+      <c r="J2">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M2" s="3">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>14</v>
+      </c>
+      <c r="F3">
+        <v>217</v>
+      </c>
+      <c r="G3" s="1">
+        <v>43986</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="2">
+        <v>31184</v>
+      </c>
+      <c r="J3">
+        <v>12</v>
+      </c>
+      <c r="L3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="3">
+        <v>1050000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>195</v>
+      </c>
+      <c r="G4" s="1">
+        <v>43960</v>
+      </c>
+      <c r="H4" t="s">
+        <v>232</v>
+      </c>
+      <c r="I4" s="2">
+        <v>34953</v>
+      </c>
+      <c r="J4">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="L4" t="s">
+        <v>233</v>
+      </c>
+      <c r="M4" s="3">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B5">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>232</v>
+      </c>
+      <c r="G5" s="1">
+        <v>43983</v>
+      </c>
+      <c r="H5" t="s">
+        <v>235</v>
+      </c>
+      <c r="I5" s="2">
+        <v>35316</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>236</v>
+      </c>
+      <c r="M5" s="3">
+        <v>675000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B6">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>14</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>219</v>
+      </c>
+      <c r="G6" s="1">
+        <v>43983</v>
+      </c>
+      <c r="H6" t="s">
+        <v>238</v>
+      </c>
+      <c r="I6" s="2">
+        <v>35012</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="L6" t="s">
+        <v>239</v>
+      </c>
+      <c r="M6" s="3">
+        <v>2133000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B7">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>13</v>
+      </c>
+      <c r="F7">
+        <v>224</v>
+      </c>
+      <c r="G7" s="1">
+        <v>43983</v>
+      </c>
+      <c r="H7" t="s">
+        <v>241</v>
+      </c>
+      <c r="I7" s="2">
+        <v>34549</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="L7" t="s">
+        <v>242</v>
+      </c>
+      <c r="M7" s="3">
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B8">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>215</v>
+      </c>
+      <c r="G8" s="1">
+        <v>43984</v>
+      </c>
+      <c r="H8" t="s">
+        <v>244</v>
+      </c>
+      <c r="I8" s="2">
+        <v>34864</v>
+      </c>
+      <c r="J8">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="L8" t="s">
+        <v>245</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <v>190</v>
+      </c>
+      <c r="G9" s="1">
+        <v>43983</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="2">
+        <v>34688</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="L9" t="s">
+        <v>174</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1470974</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A10" t="s">
+        <v>246</v>
+      </c>
+      <c r="B10">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>14</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>188</v>
+      </c>
+      <c r="G10" s="1">
+        <v>43959</v>
+      </c>
+      <c r="H10" t="s">
+        <v>148</v>
+      </c>
+      <c r="I10" s="2">
+        <v>34954</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="M10" s="3">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A11" t="s">
+        <v>247</v>
+      </c>
+      <c r="B11">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11">
         <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A2">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C2">
-        <v>39</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>245</v>
-      </c>
-      <c r="H2" s="1">
-        <v>43988</v>
-      </c>
-      <c r="I2" t="s">
-        <v>235</v>
-      </c>
-      <c r="J2" s="2">
-        <v>29762</v>
-      </c>
-      <c r="K2">
-        <v>16</v>
-      </c>
-      <c r="M2" t="s">
-        <v>236</v>
-      </c>
-      <c r="N2" s="3">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3">
-        <v>35</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3">
-        <v>13</v>
-      </c>
-      <c r="F3">
-        <v>13</v>
-      </c>
-      <c r="G3">
-        <v>217</v>
-      </c>
-      <c r="H3" s="1">
-        <v>43986</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="2">
-        <v>31184</v>
-      </c>
-      <c r="K3">
-        <v>12</v>
-      </c>
-      <c r="M3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" s="3">
-        <v>1050000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A4">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>237</v>
-      </c>
-      <c r="C4">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4">
-        <v>11</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>195</v>
-      </c>
-      <c r="H4" s="1">
-        <v>43960</v>
-      </c>
-      <c r="I4" t="s">
-        <v>238</v>
-      </c>
-      <c r="J4" s="2">
-        <v>34953</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="M4" t="s">
-        <v>239</v>
-      </c>
-      <c r="N4" s="3">
-        <v>750000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A5">
-        <v>30</v>
-      </c>
-      <c r="B5" t="s">
-        <v>240</v>
-      </c>
-      <c r="C5">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>232</v>
-      </c>
-      <c r="H5" s="1">
-        <v>43983</v>
-      </c>
-      <c r="I5" t="s">
-        <v>241</v>
-      </c>
-      <c r="J5" s="2">
-        <v>35316</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="M5" t="s">
-        <v>242</v>
-      </c>
-      <c r="N5" s="3">
-        <v>675000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A6">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>243</v>
-      </c>
-      <c r="C6">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6">
-        <v>13</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>219</v>
-      </c>
-      <c r="H6" s="1">
-        <v>43983</v>
-      </c>
-      <c r="I6" t="s">
-        <v>244</v>
-      </c>
-      <c r="J6" s="2">
-        <v>35012</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="M6" t="s">
-        <v>245</v>
-      </c>
-      <c r="N6" s="3">
-        <v>2133000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A7">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>246</v>
-      </c>
-      <c r="C7">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7">
-        <v>12</v>
-      </c>
-      <c r="F7">
-        <v>12</v>
-      </c>
-      <c r="G7">
-        <v>224</v>
-      </c>
-      <c r="H7" s="1">
-        <v>43983</v>
-      </c>
-      <c r="I7" t="s">
-        <v>247</v>
-      </c>
-      <c r="J7" s="2">
-        <v>34549</v>
-      </c>
-      <c r="K7">
-        <v>5</v>
-      </c>
-      <c r="M7" t="s">
-        <v>248</v>
-      </c>
-      <c r="N7" s="3">
-        <v>3500000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A8">
-        <v>80</v>
-      </c>
-      <c r="B8" t="s">
-        <v>249</v>
-      </c>
-      <c r="C8">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>215</v>
-      </c>
-      <c r="H8" s="1">
-        <v>43984</v>
-      </c>
-      <c r="I8" t="s">
-        <v>250</v>
-      </c>
-      <c r="J8" s="2">
-        <v>34864</v>
-      </c>
-      <c r="K8">
-        <v>4</v>
-      </c>
-      <c r="M8" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A9">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>175</v>
-      </c>
-      <c r="C9">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>12</v>
-      </c>
-      <c r="F9">
-        <v>12</v>
-      </c>
-      <c r="G9">
-        <v>190</v>
-      </c>
-      <c r="H9" s="1">
-        <v>43983</v>
-      </c>
-      <c r="I9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="2">
-        <v>34688</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="M9" t="s">
-        <v>177</v>
-      </c>
-      <c r="N9" s="3">
-        <v>1470974</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A10">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>252</v>
-      </c>
-      <c r="C10">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>13</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>188</v>
-      </c>
-      <c r="H10" s="1">
-        <v>43959</v>
-      </c>
-      <c r="I10" t="s">
-        <v>148</v>
-      </c>
-      <c r="J10" s="2">
-        <v>34954</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="N10" s="3">
-        <v>750000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A11">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>253</v>
-      </c>
-      <c r="C11">
-        <v>31</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
       </c>
       <c r="E11">
         <v>9</v>
       </c>
       <c r="F11">
+        <v>220</v>
+      </c>
+      <c r="G11" s="4">
+        <v>43985</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="2">
+        <v>32547</v>
+      </c>
+      <c r="J11">
         <v>9</v>
       </c>
-      <c r="G11">
-        <v>220</v>
-      </c>
-      <c r="H11" s="1">
-        <v>43985</v>
-      </c>
-      <c r="I11" t="s">
-        <v>29</v>
-      </c>
-      <c r="J11" s="2">
-        <v>32547</v>
-      </c>
-      <c r="K11">
+      <c r="L11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="3">
+        <v>11200000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A12" t="s">
+        <v>248</v>
+      </c>
+      <c r="B12">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12">
+        <v>14</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>184</v>
+      </c>
+      <c r="G12" s="1">
+        <v>36678</v>
+      </c>
+      <c r="H12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="2">
+        <v>35086</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="L12" t="s">
+        <v>249</v>
+      </c>
+      <c r="M12" s="3">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A13" t="s">
+        <v>250</v>
+      </c>
+      <c r="B13">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13">
+        <v>14</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>181</v>
+      </c>
+      <c r="G13" s="1">
+        <v>43983</v>
+      </c>
+      <c r="H13" t="s">
+        <v>251</v>
+      </c>
+      <c r="I13" s="2">
+        <v>35224</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="M13" s="3">
+        <v>675000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A14" t="s">
+        <v>204</v>
+      </c>
+      <c r="B14">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14">
+        <v>14</v>
+      </c>
+      <c r="E14">
+        <v>11</v>
+      </c>
+      <c r="F14">
+        <v>253</v>
+      </c>
+      <c r="G14" s="1">
+        <v>43987</v>
+      </c>
+      <c r="H14" t="s">
+        <v>112</v>
+      </c>
+      <c r="I14" s="2">
+        <v>32341</v>
+      </c>
+      <c r="J14">
         <v>9</v>
       </c>
-      <c r="M11" t="s">
-        <v>30</v>
-      </c>
-      <c r="N11" s="3">
-        <v>11200000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A12">
-        <v>83</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="L14" t="s">
+        <v>205</v>
+      </c>
+      <c r="M14" s="3">
+        <v>1050000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A15" t="s">
+        <v>252</v>
+      </c>
+      <c r="B15">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <v>9</v>
+      </c>
+      <c r="F15">
+        <v>245</v>
+      </c>
+      <c r="G15" s="1">
+        <v>43986</v>
+      </c>
+      <c r="H15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="2">
+        <v>34205</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="L15" t="s">
+        <v>253</v>
+      </c>
+      <c r="M15" s="3">
+        <v>1483275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A16" t="s">
         <v>254</v>
       </c>
-      <c r="C12">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="B16">
         <v>25</v>
       </c>
-      <c r="E12">
-        <v>13</v>
-      </c>
-      <c r="F12">
-        <v>5</v>
-      </c>
-      <c r="G12">
-        <v>184</v>
-      </c>
-      <c r="H12" s="4">
-        <v>36678</v>
-      </c>
-      <c r="I12" t="s">
-        <v>72</v>
-      </c>
-      <c r="J12" s="2">
-        <v>35086</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="M12" t="s">
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>250</v>
+      </c>
+      <c r="G16" s="1">
+        <v>43986</v>
+      </c>
+      <c r="H16" t="s">
+        <v>195</v>
+      </c>
+      <c r="I16" s="2">
+        <v>34982</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="M16" s="3">
+        <v>675000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A17" t="s">
+        <v>215</v>
+      </c>
+      <c r="B17">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
         <v>255</v>
       </c>
-      <c r="N12" s="3">
-        <v>750000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A13">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>256</v>
-      </c>
-      <c r="C13">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <v>13</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>181</v>
-      </c>
-      <c r="H13" s="1">
-        <v>43983</v>
-      </c>
-      <c r="I13" t="s">
-        <v>257</v>
-      </c>
-      <c r="J13" s="2">
-        <v>35224</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="N13" s="3">
-        <v>675000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A14">
-        <v>88</v>
-      </c>
-      <c r="B14" t="s">
-        <v>209</v>
-      </c>
-      <c r="C14">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14">
-        <v>13</v>
-      </c>
-      <c r="F14">
-        <v>10</v>
-      </c>
-      <c r="G14">
-        <v>253</v>
-      </c>
-      <c r="H14" s="1">
-        <v>43987</v>
-      </c>
-      <c r="I14" t="s">
-        <v>112</v>
-      </c>
-      <c r="J14" s="2">
-        <v>32341</v>
-      </c>
-      <c r="K14">
-        <v>9</v>
-      </c>
-      <c r="M14" t="s">
-        <v>210</v>
-      </c>
-      <c r="N14" s="3">
-        <v>1050000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A15">
-        <v>81</v>
-      </c>
-      <c r="B15" t="s">
-        <v>258</v>
-      </c>
-      <c r="C15">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15">
-        <v>13</v>
-      </c>
-      <c r="F15">
-        <v>9</v>
-      </c>
-      <c r="G15">
-        <v>245</v>
-      </c>
-      <c r="H15" s="1">
-        <v>43986</v>
-      </c>
-      <c r="I15" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="2">
-        <v>34205</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="M15" t="s">
-        <v>259</v>
-      </c>
-      <c r="N15" s="3">
-        <v>1483275</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A16">
-        <v>87</v>
-      </c>
-      <c r="B16" t="s">
-        <v>260</v>
-      </c>
-      <c r="C16">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16">
-        <v>13</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>250</v>
-      </c>
-      <c r="H16" s="1">
-        <v>43986</v>
-      </c>
-      <c r="I16" t="s">
-        <v>200</v>
-      </c>
-      <c r="J16" s="2">
-        <v>34982</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="N16" s="3">
-        <v>675000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A17">
-        <v>76</v>
-      </c>
-      <c r="B17" t="s">
-        <v>220</v>
-      </c>
-      <c r="C17">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>261</v>
+      <c r="D17">
+        <v>12</v>
       </c>
       <c r="E17">
         <v>11</v>
       </c>
       <c r="F17">
+        <v>306</v>
+      </c>
+      <c r="G17" s="1">
+        <v>43988</v>
+      </c>
+      <c r="H17" t="s">
+        <v>95</v>
+      </c>
+      <c r="I17" s="2">
+        <v>34752</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
+        <v>216</v>
+      </c>
+      <c r="M17" s="3">
+        <v>961625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A18" t="s">
+        <v>210</v>
+      </c>
+      <c r="B18">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>255</v>
+      </c>
+      <c r="D18">
+        <v>14</v>
+      </c>
+      <c r="E18">
+        <v>14</v>
+      </c>
+      <c r="F18">
+        <v>307</v>
+      </c>
+      <c r="G18" s="1">
+        <v>43985</v>
+      </c>
+      <c r="H18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="2">
+        <v>35489</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="L18" t="s">
+        <v>211</v>
+      </c>
+      <c r="M18" s="3">
+        <v>1161503</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A19" t="s">
+        <v>256</v>
+      </c>
+      <c r="B19">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>255</v>
+      </c>
+      <c r="D19">
         <v>11</v>
       </c>
-      <c r="G17">
-        <v>306</v>
-      </c>
-      <c r="H17" s="1">
-        <v>43988</v>
-      </c>
-      <c r="I17" t="s">
-        <v>95</v>
-      </c>
-      <c r="J17" s="2">
-        <v>34752</v>
-      </c>
-      <c r="K17">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>307</v>
+      </c>
+      <c r="G19" s="1">
+        <v>43986</v>
+      </c>
+      <c r="H19" t="s">
+        <v>257</v>
+      </c>
+      <c r="I19" s="2">
+        <v>35751</v>
+      </c>
+      <c r="J19" t="s">
+        <v>60</v>
+      </c>
+      <c r="L19" t="s">
+        <v>258</v>
+      </c>
+      <c r="M19" s="3">
+        <v>610000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>259</v>
+      </c>
+      <c r="D20">
+        <v>14</v>
+      </c>
+      <c r="E20">
+        <v>14</v>
+      </c>
+      <c r="F20">
+        <v>309</v>
+      </c>
+      <c r="G20" s="1">
+        <v>43987</v>
+      </c>
+      <c r="H20" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" s="2">
+        <v>33645</v>
+      </c>
+      <c r="J20">
+        <v>6</v>
+      </c>
+      <c r="L20" t="s">
+        <v>41</v>
+      </c>
+      <c r="M20" s="3">
+        <v>3550000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A21" t="s">
+        <v>260</v>
+      </c>
+      <c r="B21">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>261</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>328</v>
+      </c>
+      <c r="G21" s="1">
+        <v>43989</v>
+      </c>
+      <c r="H21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="2">
+        <v>33437</v>
+      </c>
+      <c r="J21">
+        <v>7</v>
+      </c>
+      <c r="M21" s="3">
+        <v>856471</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A22" t="s">
+        <v>262</v>
+      </c>
+      <c r="B22">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>261</v>
+      </c>
+      <c r="D22">
+        <v>14</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>305</v>
+      </c>
+      <c r="G22" s="1">
+        <v>43986</v>
+      </c>
+      <c r="H22" t="s">
+        <v>263</v>
+      </c>
+      <c r="I22" s="2">
+        <v>35195</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="M22" s="3">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A23" t="s">
+        <v>206</v>
+      </c>
+      <c r="B23">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23">
+        <v>12</v>
+      </c>
+      <c r="E23">
+        <v>12</v>
+      </c>
+      <c r="F23">
+        <v>321</v>
+      </c>
+      <c r="G23" s="1">
+        <v>43987</v>
+      </c>
+      <c r="H23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="2">
+        <v>32589</v>
+      </c>
+      <c r="J23">
+        <v>9</v>
+      </c>
+      <c r="L23" t="s">
+        <v>207</v>
+      </c>
+      <c r="M23" s="3">
+        <v>3750000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A24" t="s">
+        <v>264</v>
+      </c>
+      <c r="B24">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>8</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>317</v>
+      </c>
+      <c r="G24" s="1">
+        <v>43985</v>
+      </c>
+      <c r="H24" t="s">
+        <v>107</v>
+      </c>
+      <c r="I24" s="2">
+        <v>33755</v>
+      </c>
+      <c r="J24">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3">
+        <v>825000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A25" t="s">
+        <v>209</v>
+      </c>
+      <c r="B25">
+        <v>35</v>
+      </c>
+      <c r="C25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25">
+        <v>14</v>
+      </c>
+      <c r="E25">
+        <v>14</v>
+      </c>
+      <c r="F25">
+        <v>311</v>
+      </c>
+      <c r="G25" s="1">
+        <v>43986</v>
+      </c>
+      <c r="H25" t="s">
+        <v>137</v>
+      </c>
+      <c r="I25" s="2">
+        <v>31370</v>
+      </c>
+      <c r="J25">
+        <v>11</v>
+      </c>
+      <c r="L25" t="s">
+        <v>138</v>
+      </c>
+      <c r="M25" s="3">
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A26" t="s">
+        <v>265</v>
+      </c>
+      <c r="B26">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
+        <v>266</v>
+      </c>
+      <c r="D26">
+        <v>7</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>303</v>
+      </c>
+      <c r="G26" s="1">
+        <v>43985</v>
+      </c>
+      <c r="H26" t="s">
+        <v>110</v>
+      </c>
+      <c r="I26" s="2">
+        <v>35926</v>
+      </c>
+      <c r="J26" t="s">
+        <v>60</v>
+      </c>
+      <c r="L26" t="s">
+        <v>267</v>
+      </c>
+      <c r="M26" s="3">
+        <v>585294</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A27" t="s">
+        <v>219</v>
+      </c>
+      <c r="B27">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>266</v>
+      </c>
+      <c r="D27">
+        <v>14</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <v>288</v>
+      </c>
+      <c r="G27" s="1">
+        <v>43985</v>
+      </c>
+      <c r="H27" t="s">
+        <v>118</v>
+      </c>
+      <c r="I27" s="2">
+        <v>32592</v>
+      </c>
+      <c r="J27">
+        <v>9</v>
+      </c>
+      <c r="L27" t="s">
+        <v>221</v>
+      </c>
+      <c r="M27" s="3">
+        <v>1050000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A28" t="s">
+        <v>268</v>
+      </c>
+      <c r="B28">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>269</v>
+      </c>
+      <c r="D28">
+        <v>14</v>
+      </c>
+      <c r="E28">
+        <v>9</v>
+      </c>
+      <c r="F28">
+        <v>263</v>
+      </c>
+      <c r="G28" s="1">
+        <v>43985</v>
+      </c>
+      <c r="H28" t="s">
+        <v>270</v>
+      </c>
+      <c r="I28" s="2">
+        <v>33132</v>
+      </c>
+      <c r="J28">
+        <v>7</v>
+      </c>
+      <c r="L28" t="s">
+        <v>271</v>
+      </c>
+      <c r="M28" s="3">
+        <v>910000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A29" t="s">
+        <v>272</v>
+      </c>
+      <c r="B29">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>269</v>
+      </c>
+      <c r="D29">
+        <v>11</v>
+      </c>
+      <c r="E29">
         <v>1</v>
       </c>
-      <c r="M17" t="s">
-        <v>221</v>
-      </c>
-      <c r="N17" s="3">
-        <v>961625</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A18">
-        <v>63</v>
-      </c>
-      <c r="B18" t="s">
-        <v>215</v>
-      </c>
-      <c r="C18">
-        <v>23</v>
-      </c>
-      <c r="D18" t="s">
-        <v>261</v>
-      </c>
-      <c r="E18">
-        <v>13</v>
-      </c>
-      <c r="F18">
-        <v>13</v>
-      </c>
-      <c r="G18">
-        <v>307</v>
-      </c>
-      <c r="H18" s="1">
+      <c r="F29">
+        <v>252</v>
+      </c>
+      <c r="G29" s="1">
         <v>43985</v>
       </c>
-      <c r="I18" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" s="2">
-        <v>35489</v>
-      </c>
-      <c r="K18">
+      <c r="H29" t="s">
+        <v>103</v>
+      </c>
+      <c r="I29" s="2">
+        <v>34764</v>
+      </c>
+      <c r="J29">
+        <v>3</v>
+      </c>
+      <c r="L29" t="s">
+        <v>273</v>
+      </c>
+      <c r="M29" s="3">
+        <v>1943692</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A30" t="s">
+        <v>274</v>
+      </c>
+      <c r="B30">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>269</v>
+      </c>
+      <c r="D30">
+        <v>11</v>
+      </c>
+      <c r="E30">
         <v>1</v>
       </c>
-      <c r="M18" t="s">
-        <v>216</v>
-      </c>
-      <c r="N18" s="3">
-        <v>1161503</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A19">
-        <v>61</v>
-      </c>
-      <c r="B19" t="s">
-        <v>262</v>
-      </c>
-      <c r="C19">
-        <v>23</v>
-      </c>
-      <c r="D19" t="s">
-        <v>261</v>
-      </c>
-      <c r="E19">
-        <v>10</v>
-      </c>
-      <c r="F19">
+      <c r="F30">
+        <v>285</v>
+      </c>
+      <c r="G30" s="1">
+        <v>43987</v>
+      </c>
+      <c r="H30" t="s">
+        <v>275</v>
+      </c>
+      <c r="I30" s="2">
+        <v>35025</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="L30" t="s">
+        <v>276</v>
+      </c>
+      <c r="M30" s="3">
+        <v>675000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A31" t="s">
+        <v>277</v>
+      </c>
+      <c r="B31">
+        <v>24</v>
+      </c>
+      <c r="C31" t="s">
+        <v>278</v>
+      </c>
+      <c r="D31">
+        <v>14</v>
+      </c>
+      <c r="E31">
         <v>0</v>
       </c>
-      <c r="G19">
-        <v>307</v>
-      </c>
-      <c r="H19" s="1">
-        <v>43986</v>
-      </c>
-      <c r="I19" t="s">
-        <v>263</v>
-      </c>
-      <c r="J19" s="2">
-        <v>35751</v>
-      </c>
-      <c r="K19" t="s">
-        <v>60</v>
-      </c>
-      <c r="M19" t="s">
-        <v>264</v>
-      </c>
-      <c r="N19" s="3">
-        <v>610000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A20">
-        <v>70</v>
-      </c>
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20">
+      <c r="F31">
+        <v>285</v>
+      </c>
+      <c r="G31" s="1">
+        <v>43984</v>
+      </c>
+      <c r="H31" t="s">
+        <v>157</v>
+      </c>
+      <c r="I31" s="2">
+        <v>35271</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="M31" s="3">
+        <v>675000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A32" t="s">
+        <v>279</v>
+      </c>
+      <c r="B32">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>278</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>305</v>
+      </c>
+      <c r="G32" s="4">
+        <v>43983</v>
+      </c>
+      <c r="H32" t="s">
+        <v>184</v>
+      </c>
+      <c r="I32" s="2">
+        <v>34537</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+      <c r="L32" t="s">
+        <v>280</v>
+      </c>
+      <c r="M32" s="3">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A33" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33">
+        <v>27</v>
+      </c>
+      <c r="C33" t="s">
+        <v>278</v>
+      </c>
+      <c r="D33">
+        <v>14</v>
+      </c>
+      <c r="E33">
+        <v>14</v>
+      </c>
+      <c r="F33">
+        <v>305</v>
+      </c>
+      <c r="G33" s="1">
+        <v>36678</v>
+      </c>
+      <c r="H33" t="s">
+        <v>59</v>
+      </c>
+      <c r="I33" s="2">
+        <v>34087</v>
+      </c>
+      <c r="J33">
+        <v>5</v>
+      </c>
+      <c r="L33" t="s">
+        <v>117</v>
+      </c>
+      <c r="M33" s="3">
+        <v>5001000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A34" t="s">
+        <v>217</v>
+      </c>
+      <c r="B34">
         <v>28</v>
       </c>
-      <c r="D20" t="s">
-        <v>265</v>
-      </c>
-      <c r="E20">
-        <v>13</v>
-      </c>
-      <c r="F20">
-        <v>13</v>
-      </c>
-      <c r="G20">
-        <v>309</v>
-      </c>
-      <c r="H20" s="1">
-        <v>43987</v>
-      </c>
-      <c r="I20" t="s">
-        <v>40</v>
-      </c>
-      <c r="J20" s="2">
-        <v>33645</v>
-      </c>
-      <c r="K20">
-        <v>6</v>
-      </c>
-      <c r="M20" t="s">
-        <v>41</v>
-      </c>
-      <c r="N20" s="3">
-        <v>3550000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A21">
-        <v>75</v>
-      </c>
-      <c r="B21" t="s">
-        <v>266</v>
-      </c>
-      <c r="C21">
-        <v>29</v>
-      </c>
-      <c r="D21" t="s">
-        <v>267</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>328</v>
-      </c>
-      <c r="H21" s="1">
-        <v>43989</v>
-      </c>
-      <c r="I21" t="s">
-        <v>16</v>
-      </c>
-      <c r="J21" s="2">
-        <v>33437</v>
-      </c>
-      <c r="K21">
-        <v>7</v>
-      </c>
-      <c r="N21" s="3">
-        <v>856471</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A22">
-        <v>73</v>
-      </c>
-      <c r="B22" t="s">
-        <v>268</v>
-      </c>
-      <c r="C22">
-        <v>24</v>
-      </c>
-      <c r="D22" t="s">
-        <v>267</v>
-      </c>
-      <c r="E22">
-        <v>13</v>
-      </c>
-      <c r="F22">
-        <v>2</v>
-      </c>
-      <c r="G22">
-        <v>305</v>
-      </c>
-      <c r="H22" s="1">
-        <v>43986</v>
-      </c>
-      <c r="I22" t="s">
-        <v>269</v>
-      </c>
-      <c r="J22" s="2">
-        <v>35195</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="N22" s="3">
-        <v>750000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A23">
-        <v>77</v>
-      </c>
-      <c r="B23" t="s">
-        <v>211</v>
-      </c>
-      <c r="C23">
-        <v>31</v>
-      </c>
-      <c r="D23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23">
-        <v>11</v>
-      </c>
-      <c r="F23">
-        <v>11</v>
-      </c>
-      <c r="G23">
-        <v>321</v>
-      </c>
-      <c r="H23" s="1">
-        <v>43987</v>
-      </c>
-      <c r="I23" t="s">
-        <v>29</v>
-      </c>
-      <c r="J23" s="2">
-        <v>32589</v>
-      </c>
-      <c r="K23">
-        <v>9</v>
-      </c>
-      <c r="M23" t="s">
-        <v>212</v>
-      </c>
-      <c r="N23" s="3">
-        <v>3750000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A24">
-        <v>65</v>
-      </c>
-      <c r="B24" t="s">
-        <v>270</v>
-      </c>
-      <c r="C24">
-        <v>28</v>
-      </c>
-      <c r="D24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24">
-        <v>7</v>
-      </c>
-      <c r="F24">
-        <v>2</v>
-      </c>
-      <c r="G24">
-        <v>317</v>
-      </c>
-      <c r="H24" s="1">
-        <v>43985</v>
-      </c>
-      <c r="I24" t="s">
-        <v>107</v>
-      </c>
-      <c r="J24" s="2">
-        <v>33755</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="N24" s="3">
-        <v>825000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A25">
-        <v>51</v>
-      </c>
-      <c r="B25" t="s">
-        <v>214</v>
-      </c>
-      <c r="C25">
-        <v>35</v>
-      </c>
-      <c r="D25" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25">
-        <v>13</v>
-      </c>
-      <c r="F25">
-        <v>13</v>
-      </c>
-      <c r="G25">
-        <v>311</v>
-      </c>
-      <c r="H25" s="1">
-        <v>43986</v>
-      </c>
-      <c r="I25" t="s">
-        <v>137</v>
-      </c>
-      <c r="J25" s="2">
-        <v>31370</v>
-      </c>
-      <c r="K25">
-        <v>11</v>
-      </c>
-      <c r="M25" t="s">
-        <v>138</v>
-      </c>
-      <c r="N25" s="3">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A26">
-        <v>90</v>
-      </c>
-      <c r="B26" t="s">
-        <v>271</v>
-      </c>
-      <c r="C26">
-        <v>22</v>
-      </c>
-      <c r="D26" t="s">
-        <v>272</v>
-      </c>
-      <c r="E26">
-        <v>7</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>303</v>
-      </c>
-      <c r="H26" s="1">
-        <v>43985</v>
-      </c>
-      <c r="I26" t="s">
-        <v>110</v>
-      </c>
-      <c r="J26" s="2">
-        <v>35926</v>
-      </c>
-      <c r="K26" t="s">
-        <v>60</v>
-      </c>
-      <c r="M26" t="s">
-        <v>273</v>
-      </c>
-      <c r="N26" s="3">
-        <v>585294</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A27">
-        <v>93</v>
-      </c>
-      <c r="B27" t="s">
-        <v>225</v>
-      </c>
-      <c r="C27">
-        <v>31</v>
-      </c>
-      <c r="D27" t="s">
-        <v>272</v>
-      </c>
-      <c r="E27">
-        <v>13</v>
-      </c>
-      <c r="F27">
-        <v>4</v>
-      </c>
-      <c r="G27">
-        <v>288</v>
-      </c>
-      <c r="H27" s="1">
-        <v>43985</v>
-      </c>
-      <c r="I27" t="s">
-        <v>118</v>
-      </c>
-      <c r="J27" s="2">
-        <v>32592</v>
-      </c>
-      <c r="K27">
-        <v>9</v>
-      </c>
-      <c r="M27" t="s">
-        <v>227</v>
-      </c>
-      <c r="N27" s="3">
-        <v>1050000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A28">
-        <v>55</v>
-      </c>
-      <c r="B28" t="s">
-        <v>274</v>
-      </c>
-      <c r="C28">
-        <v>30</v>
-      </c>
-      <c r="D28" t="s">
-        <v>275</v>
-      </c>
-      <c r="E28">
-        <v>13</v>
-      </c>
-      <c r="F28">
-        <v>8</v>
-      </c>
-      <c r="G28">
-        <v>263</v>
-      </c>
-      <c r="H28" s="1">
-        <v>43985</v>
-      </c>
-      <c r="I28" t="s">
-        <v>276</v>
-      </c>
-      <c r="J28" s="2">
-        <v>33132</v>
-      </c>
-      <c r="K28">
-        <v>7</v>
-      </c>
-      <c r="M28" t="s">
-        <v>277</v>
-      </c>
-      <c r="N28" s="3">
-        <v>910000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A29">
-        <v>92</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="C34" t="s">
         <v>278</v>
       </c>
-      <c r="C29">
-        <v>25</v>
-      </c>
-      <c r="D29" t="s">
-        <v>275</v>
-      </c>
-      <c r="E29">
-        <v>10</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>252</v>
-      </c>
-      <c r="H29" s="1">
-        <v>43985</v>
-      </c>
-      <c r="I29" t="s">
-        <v>103</v>
-      </c>
-      <c r="J29" s="2">
-        <v>34764</v>
-      </c>
-      <c r="K29">
-        <v>3</v>
-      </c>
-      <c r="M29" t="s">
-        <v>279</v>
-      </c>
-      <c r="N29" s="3">
-        <v>1943692</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A30">
-        <v>50</v>
-      </c>
-      <c r="B30" t="s">
-        <v>280</v>
-      </c>
-      <c r="C30">
-        <v>25</v>
-      </c>
-      <c r="D30" t="s">
-        <v>275</v>
-      </c>
-      <c r="E30">
-        <v>10</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>285</v>
-      </c>
-      <c r="H30" s="1">
-        <v>43987</v>
-      </c>
-      <c r="I30" t="s">
-        <v>281</v>
-      </c>
-      <c r="J30" s="2">
-        <v>35025</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="M30" t="s">
-        <v>282</v>
-      </c>
-      <c r="N30" s="3">
-        <v>675000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A31">
-        <v>91</v>
-      </c>
-      <c r="B31" t="s">
-        <v>283</v>
-      </c>
-      <c r="C31">
-        <v>24</v>
-      </c>
-      <c r="D31" t="s">
-        <v>284</v>
-      </c>
-      <c r="E31">
-        <v>13</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>285</v>
-      </c>
-      <c r="H31" s="1">
-        <v>43984</v>
-      </c>
-      <c r="I31" t="s">
-        <v>157</v>
-      </c>
-      <c r="J31" s="2">
-        <v>35271</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="N31" s="3">
-        <v>675000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A32">
-        <v>94</v>
-      </c>
-      <c r="B32" t="s">
-        <v>285</v>
-      </c>
-      <c r="C32">
-        <v>26</v>
-      </c>
-      <c r="D32" t="s">
-        <v>284</v>
-      </c>
-      <c r="E32">
-        <v>4</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>305</v>
-      </c>
-      <c r="H32" s="1">
-        <v>43983</v>
-      </c>
-      <c r="I32" t="s">
-        <v>189</v>
-      </c>
-      <c r="J32" s="2">
-        <v>34537</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="M32" t="s">
-        <v>286</v>
-      </c>
-      <c r="N32" s="3">
-        <v>750000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A33">
-        <v>97</v>
-      </c>
-      <c r="B33" t="s">
-        <v>116</v>
-      </c>
-      <c r="C33">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>284</v>
-      </c>
-      <c r="E33">
-        <v>13</v>
-      </c>
-      <c r="F33">
-        <v>13</v>
-      </c>
-      <c r="G33">
-        <v>305</v>
-      </c>
-      <c r="H33" s="4">
-        <v>36678</v>
-      </c>
-      <c r="I33" t="s">
-        <v>59</v>
-      </c>
-      <c r="J33" s="2">
-        <v>34087</v>
-      </c>
-      <c r="K33">
-        <v>5</v>
-      </c>
-      <c r="M33" t="s">
-        <v>117</v>
-      </c>
-      <c r="N33" s="3">
-        <v>5001000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A34">
-        <v>96</v>
-      </c>
-      <c r="B34" t="s">
-        <v>223</v>
-      </c>
-      <c r="C34">
-        <v>28</v>
-      </c>
-      <c r="D34" t="s">
-        <v>284</v>
+      <c r="D34">
+        <v>14</v>
       </c>
       <c r="E34">
         <v>13</v>
       </c>
       <c r="F34">
+        <v>309</v>
+      </c>
+      <c r="G34" s="1">
+        <v>43984</v>
+      </c>
+      <c r="H34" t="s">
+        <v>120</v>
+      </c>
+      <c r="I34" s="2">
+        <v>33850</v>
+      </c>
+      <c r="J34">
+        <v>5</v>
+      </c>
+      <c r="L34" t="s">
+        <v>218</v>
+      </c>
+      <c r="M34" s="3">
+        <v>910000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A35" t="s">
+        <v>281</v>
+      </c>
+      <c r="B35">
+        <v>28</v>
+      </c>
+      <c r="C35" t="s">
+        <v>282</v>
+      </c>
+      <c r="D35">
+        <v>11</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>245</v>
+      </c>
+      <c r="G35" s="1">
+        <v>43985</v>
+      </c>
+      <c r="H35" t="s">
+        <v>283</v>
+      </c>
+      <c r="I35" s="2">
+        <v>33657</v>
+      </c>
+      <c r="J35">
+        <v>5</v>
+      </c>
+      <c r="L35" t="s">
+        <v>284</v>
+      </c>
+      <c r="M35" s="3">
+        <v>428235</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A36" t="s">
+        <v>141</v>
+      </c>
+      <c r="B36">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>282</v>
+      </c>
+      <c r="D36">
+        <v>14</v>
+      </c>
+      <c r="E36">
+        <v>14</v>
+      </c>
+      <c r="F36">
+        <v>227</v>
+      </c>
+      <c r="G36" s="1">
+        <v>43983</v>
+      </c>
+      <c r="H36" t="s">
+        <v>72</v>
+      </c>
+      <c r="I36" s="2">
+        <v>34642</v>
+      </c>
+      <c r="J36">
+        <v>4</v>
+      </c>
+      <c r="L36" t="s">
+        <v>142</v>
+      </c>
+      <c r="M36" s="3">
+        <v>5850000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A37" t="s">
+        <v>285</v>
+      </c>
+      <c r="B37">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>282</v>
+      </c>
+      <c r="D37">
         <v>12</v>
-      </c>
-      <c r="G34">
-        <v>309</v>
-      </c>
-      <c r="H34" s="1">
-        <v>43984</v>
-      </c>
-      <c r="I34" t="s">
-        <v>120</v>
-      </c>
-      <c r="J34" s="2">
-        <v>33850</v>
-      </c>
-      <c r="K34">
-        <v>5</v>
-      </c>
-      <c r="M34" t="s">
-        <v>224</v>
-      </c>
-      <c r="N34" s="3">
-        <v>910000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A35">
-        <v>46</v>
-      </c>
-      <c r="B35" t="s">
-        <v>287</v>
-      </c>
-      <c r="C35">
-        <v>28</v>
-      </c>
-      <c r="D35" t="s">
-        <v>288</v>
-      </c>
-      <c r="E35">
-        <v>10</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>245</v>
-      </c>
-      <c r="H35" s="1">
-        <v>43985</v>
-      </c>
-      <c r="I35" t="s">
-        <v>289</v>
-      </c>
-      <c r="J35" s="2">
-        <v>33657</v>
-      </c>
-      <c r="K35">
-        <v>5</v>
-      </c>
-      <c r="M35" t="s">
-        <v>290</v>
-      </c>
-      <c r="N35" s="3">
-        <v>428235</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A36">
-        <v>45</v>
-      </c>
-      <c r="B36" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36">
-        <v>26</v>
-      </c>
-      <c r="D36" t="s">
-        <v>288</v>
-      </c>
-      <c r="E36">
-        <v>13</v>
-      </c>
-      <c r="F36">
-        <v>13</v>
-      </c>
-      <c r="G36">
-        <v>227</v>
-      </c>
-      <c r="H36" s="1">
-        <v>43983</v>
-      </c>
-      <c r="I36" t="s">
-        <v>72</v>
-      </c>
-      <c r="J36" s="2">
-        <v>34642</v>
-      </c>
-      <c r="K36">
-        <v>4</v>
-      </c>
-      <c r="M36" t="s">
-        <v>142</v>
-      </c>
-      <c r="N36" s="3">
-        <v>5850000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A37">
-        <v>56</v>
-      </c>
-      <c r="B37" t="s">
-        <v>291</v>
-      </c>
-      <c r="C37">
-        <v>26</v>
-      </c>
-      <c r="D37" t="s">
-        <v>288</v>
       </c>
       <c r="E37">
         <v>11</v>
       </c>
       <c r="F37">
+        <v>255</v>
+      </c>
+      <c r="G37" s="1">
+        <v>43985</v>
+      </c>
+      <c r="H37" t="s">
+        <v>148</v>
+      </c>
+      <c r="I37" s="2">
+        <v>34549</v>
+      </c>
+      <c r="J37">
+        <v>4</v>
+      </c>
+      <c r="L37" t="s">
+        <v>286</v>
+      </c>
+      <c r="M37" s="3">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A38" t="s">
+        <v>287</v>
+      </c>
+      <c r="B38">
+        <v>23</v>
+      </c>
+      <c r="C38" t="s">
+        <v>288</v>
+      </c>
+      <c r="D38">
+        <v>14</v>
+      </c>
+      <c r="E38">
+        <v>6</v>
+      </c>
+      <c r="F38">
+        <v>230</v>
+      </c>
+      <c r="G38" s="4">
+        <v>43985</v>
+      </c>
+      <c r="H38" t="s">
+        <v>289</v>
+      </c>
+      <c r="I38" s="2">
+        <v>35670</v>
+      </c>
+      <c r="J38" t="s">
+        <v>60</v>
+      </c>
+      <c r="L38" t="s">
+        <v>290</v>
+      </c>
+      <c r="M38" s="3">
+        <v>610000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A39" t="s">
+        <v>202</v>
+      </c>
+      <c r="B39">
+        <v>28</v>
+      </c>
+      <c r="C39" t="s">
+        <v>288</v>
+      </c>
+      <c r="D39">
+        <v>14</v>
+      </c>
+      <c r="E39">
+        <v>5</v>
+      </c>
+      <c r="F39">
+        <v>240</v>
+      </c>
+      <c r="G39" s="1">
+        <v>36678</v>
+      </c>
+      <c r="H39" t="s">
+        <v>115</v>
+      </c>
+      <c r="I39" s="2">
+        <v>33702</v>
+      </c>
+      <c r="J39">
+        <v>6</v>
+      </c>
+      <c r="M39" s="3">
+        <v>910000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A40" t="s">
+        <v>291</v>
+      </c>
+      <c r="B40">
+        <v>30</v>
+      </c>
+      <c r="C40" t="s">
+        <v>288</v>
+      </c>
+      <c r="D40">
+        <v>14</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>240</v>
+      </c>
+      <c r="G40" s="1">
+        <v>43983</v>
+      </c>
+      <c r="H40" t="s">
+        <v>229</v>
+      </c>
+      <c r="I40" s="2">
+        <v>33180</v>
+      </c>
+      <c r="J40">
+        <v>7</v>
+      </c>
+      <c r="M40" s="3">
+        <v>1050000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A41" t="s">
+        <v>292</v>
+      </c>
+      <c r="B41">
+        <v>31</v>
+      </c>
+      <c r="C41" t="s">
+        <v>224</v>
+      </c>
+      <c r="D41">
+        <v>13</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>190</v>
+      </c>
+      <c r="G41" s="1">
+        <v>43983</v>
+      </c>
+      <c r="H41" t="s">
+        <v>109</v>
+      </c>
+      <c r="I41" s="2">
+        <v>32847</v>
+      </c>
+      <c r="J41">
+        <v>7</v>
+      </c>
+      <c r="L41" t="s">
+        <v>293</v>
+      </c>
+      <c r="M41" s="3">
+        <v>1050000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A42" t="s">
+        <v>294</v>
+      </c>
+      <c r="B42">
+        <v>22</v>
+      </c>
+      <c r="C42" t="s">
+        <v>224</v>
+      </c>
+      <c r="D42">
+        <v>12</v>
+      </c>
+      <c r="E42">
+        <v>12</v>
+      </c>
+      <c r="F42">
+        <v>195</v>
+      </c>
+      <c r="G42" s="1">
+        <v>43983</v>
+      </c>
+      <c r="H42" t="s">
+        <v>59</v>
+      </c>
+      <c r="I42" s="2">
+        <v>36061</v>
+      </c>
+      <c r="J42" t="s">
+        <v>60</v>
+      </c>
+      <c r="L42" t="s">
+        <v>295</v>
+      </c>
+      <c r="M42" s="3">
+        <v>610000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A43" t="s">
+        <v>225</v>
+      </c>
+      <c r="B43">
+        <v>24</v>
+      </c>
+      <c r="C43" t="s">
+        <v>224</v>
+      </c>
+      <c r="D43">
+        <v>11</v>
+      </c>
+      <c r="E43">
+        <v>7</v>
+      </c>
+      <c r="F43">
+        <v>212</v>
+      </c>
+      <c r="G43" s="4">
+        <v>43961</v>
+      </c>
+      <c r="H43" t="s">
+        <v>226</v>
+      </c>
+      <c r="I43" s="2">
+        <v>35215</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="L43" t="s">
+        <v>227</v>
+      </c>
+      <c r="M43" s="3">
+        <v>675000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A44" t="s">
+        <v>222</v>
+      </c>
+      <c r="B44">
+        <v>24</v>
+      </c>
+      <c r="C44" t="s">
+        <v>224</v>
+      </c>
+      <c r="D44">
+        <v>14</v>
+      </c>
+      <c r="E44">
         <v>10</v>
       </c>
-      <c r="G37">
-        <v>255</v>
-      </c>
-      <c r="H37" s="1">
-        <v>43985</v>
-      </c>
-      <c r="I37" t="s">
-        <v>148</v>
-      </c>
-      <c r="J37" s="2">
-        <v>34549</v>
-      </c>
-      <c r="K37">
-        <v>4</v>
-      </c>
-      <c r="M37" t="s">
-        <v>292</v>
-      </c>
-      <c r="N37" s="3">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A38">
-        <v>43</v>
-      </c>
-      <c r="B38" t="s">
-        <v>293</v>
-      </c>
-      <c r="C38">
-        <v>23</v>
-      </c>
-      <c r="D38" t="s">
-        <v>294</v>
-      </c>
-      <c r="E38">
-        <v>13</v>
-      </c>
-      <c r="F38">
+      <c r="F44">
+        <v>210</v>
+      </c>
+      <c r="G44" s="1">
+        <v>36678</v>
+      </c>
+      <c r="H44" t="s">
+        <v>113</v>
+      </c>
+      <c r="I44" s="2">
+        <v>35338</v>
+      </c>
+      <c r="J44">
+        <v>2</v>
+      </c>
+      <c r="L44" t="s">
+        <v>223</v>
+      </c>
+      <c r="M44" s="3">
+        <v>901513</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A45" t="s">
+        <v>296</v>
+      </c>
+      <c r="B45">
+        <v>29</v>
+      </c>
+      <c r="C45" t="s">
+        <v>224</v>
+      </c>
+      <c r="D45">
+        <v>8</v>
+      </c>
+      <c r="E45">
         <v>6</v>
       </c>
-      <c r="G38">
-        <v>230</v>
-      </c>
-      <c r="H38" s="1">
-        <v>43985</v>
-      </c>
-      <c r="I38" t="s">
-        <v>295</v>
-      </c>
-      <c r="J38" s="2">
-        <v>35670</v>
-      </c>
-      <c r="K38" t="s">
-        <v>60</v>
-      </c>
-      <c r="M38" t="s">
-        <v>296</v>
-      </c>
-      <c r="N38" s="3">
-        <v>610000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A39">
-        <v>40</v>
-      </c>
-      <c r="B39" t="s">
-        <v>207</v>
-      </c>
-      <c r="C39">
-        <v>28</v>
-      </c>
-      <c r="D39" t="s">
-        <v>294</v>
-      </c>
-      <c r="E39">
-        <v>13</v>
-      </c>
-      <c r="F39">
-        <v>4</v>
-      </c>
-      <c r="G39">
-        <v>240</v>
-      </c>
-      <c r="H39" s="4">
-        <v>36678</v>
-      </c>
-      <c r="I39" t="s">
-        <v>115</v>
-      </c>
-      <c r="J39" s="2">
-        <v>33702</v>
-      </c>
-      <c r="K39">
+      <c r="F45">
+        <v>205</v>
+      </c>
+      <c r="G45" s="1">
+        <v>43962</v>
+      </c>
+      <c r="H45" t="s">
+        <v>297</v>
+      </c>
+      <c r="I45" s="2">
+        <v>33521</v>
+      </c>
+      <c r="J45">
         <v>6</v>
       </c>
-      <c r="N39" s="3">
+      <c r="L45" t="s">
+        <v>298</v>
+      </c>
+      <c r="M45" s="3">
         <v>910000</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A40">
-        <v>59</v>
-      </c>
-      <c r="B40" t="s">
-        <v>297</v>
-      </c>
-      <c r="C40">
-        <v>30</v>
-      </c>
-      <c r="D40" t="s">
-        <v>294</v>
-      </c>
-      <c r="E40">
-        <v>13</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>240</v>
-      </c>
-      <c r="H40" s="1">
-        <v>43983</v>
-      </c>
-      <c r="I40" t="s">
-        <v>235</v>
-      </c>
-      <c r="J40" s="2">
-        <v>33180</v>
-      </c>
-      <c r="K40">
-        <v>7</v>
-      </c>
-      <c r="N40" s="3">
-        <v>1050000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A41">
-        <v>33</v>
-      </c>
-      <c r="B41" t="s">
-        <v>298</v>
-      </c>
-      <c r="C41">
-        <v>31</v>
-      </c>
-      <c r="D41" t="s">
-        <v>230</v>
-      </c>
-      <c r="E41">
-        <v>13</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>190</v>
-      </c>
-      <c r="H41" s="1">
-        <v>43983</v>
-      </c>
-      <c r="I41" t="s">
-        <v>109</v>
-      </c>
-      <c r="J41" s="2">
-        <v>32847</v>
-      </c>
-      <c r="K41">
-        <v>7</v>
-      </c>
-      <c r="M41" t="s">
-        <v>299</v>
-      </c>
-      <c r="N41" s="3">
-        <v>1050000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A42">
-        <v>24</v>
-      </c>
-      <c r="B42" t="s">
-        <v>300</v>
-      </c>
-      <c r="C42">
-        <v>22</v>
-      </c>
-      <c r="D42" t="s">
-        <v>230</v>
-      </c>
-      <c r="E42">
-        <v>11</v>
-      </c>
-      <c r="F42">
-        <v>11</v>
-      </c>
-      <c r="G42">
-        <v>195</v>
-      </c>
-      <c r="H42" s="1">
-        <v>43983</v>
-      </c>
-      <c r="I42" t="s">
-        <v>59</v>
-      </c>
-      <c r="J42" s="2">
-        <v>36061</v>
-      </c>
-      <c r="K42" t="s">
-        <v>60</v>
-      </c>
-      <c r="M42" t="s">
-        <v>301</v>
-      </c>
-      <c r="N42" s="3">
-        <v>610000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A43">
-        <v>20</v>
-      </c>
-      <c r="B43" t="s">
-        <v>231</v>
-      </c>
-      <c r="C43">
-        <v>24</v>
-      </c>
-      <c r="D43" t="s">
-        <v>230</v>
-      </c>
-      <c r="E43">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46">
+        <v>29</v>
+      </c>
+      <c r="C46" t="s">
+        <v>224</v>
+      </c>
+      <c r="D46">
         <v>10</v>
-      </c>
-      <c r="F43">
-        <v>6</v>
-      </c>
-      <c r="G43">
-        <v>212</v>
-      </c>
-      <c r="H43" s="1">
-        <v>43961</v>
-      </c>
-      <c r="I43" t="s">
-        <v>232</v>
-      </c>
-      <c r="J43" s="2">
-        <v>35215</v>
-      </c>
-      <c r="K43">
-        <v>1</v>
-      </c>
-      <c r="M43" t="s">
-        <v>233</v>
-      </c>
-      <c r="N43" s="3">
-        <v>675000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A44">
-        <v>26</v>
-      </c>
-      <c r="B44" t="s">
-        <v>228</v>
-      </c>
-      <c r="C44">
-        <v>24</v>
-      </c>
-      <c r="D44" t="s">
-        <v>230</v>
-      </c>
-      <c r="E44">
-        <v>13</v>
-      </c>
-      <c r="F44">
-        <v>9</v>
-      </c>
-      <c r="G44">
-        <v>210</v>
-      </c>
-      <c r="H44" s="4">
-        <v>36678</v>
-      </c>
-      <c r="I44" t="s">
-        <v>113</v>
-      </c>
-      <c r="J44" s="2">
-        <v>35338</v>
-      </c>
-      <c r="K44">
-        <v>2</v>
-      </c>
-      <c r="M44" t="s">
-        <v>229</v>
-      </c>
-      <c r="N44" s="3">
-        <v>901513</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A45">
-        <v>34</v>
-      </c>
-      <c r="B45" t="s">
-        <v>302</v>
-      </c>
-      <c r="C45">
-        <v>29</v>
-      </c>
-      <c r="D45" t="s">
-        <v>230</v>
-      </c>
-      <c r="E45">
-        <v>8</v>
-      </c>
-      <c r="F45">
-        <v>6</v>
-      </c>
-      <c r="G45">
-        <v>205</v>
-      </c>
-      <c r="H45" s="1">
-        <v>43962</v>
-      </c>
-      <c r="I45" t="s">
-        <v>303</v>
-      </c>
-      <c r="J45" s="2">
-        <v>33521</v>
-      </c>
-      <c r="K45">
-        <v>6</v>
-      </c>
-      <c r="M45" t="s">
-        <v>304</v>
-      </c>
-      <c r="N45" s="3">
-        <v>910000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A46">
-        <v>37</v>
-      </c>
-      <c r="B46" t="s">
-        <v>97</v>
-      </c>
-      <c r="C46">
-        <v>29</v>
-      </c>
-      <c r="D46" t="s">
-        <v>230</v>
       </c>
       <c r="E46">
         <v>10</v>
       </c>
       <c r="F46">
-        <v>10</v>
-      </c>
-      <c r="G46">
         <v>186</v>
       </c>
-      <c r="H46" s="1">
+      <c r="G46" s="1">
         <v>43960</v>
       </c>
-      <c r="I46" t="s">
+      <c r="H46" t="s">
         <v>99</v>
       </c>
-      <c r="J46" s="2">
+      <c r="I46" s="2">
         <v>33590</v>
       </c>
-      <c r="K46">
+      <c r="J46">
         <v>6</v>
       </c>
-      <c r="M46" t="s">
+      <c r="L46" t="s">
         <v>100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="M46" s="3">
         <v>5250000</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A47">
-        <v>22</v>
-      </c>
-      <c r="B47" t="s">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A47" t="s">
         <v>147</v>
       </c>
-      <c r="C47">
+      <c r="B47">
         <v>25</v>
       </c>
-      <c r="D47" t="s">
+      <c r="C47" t="s">
         <v>102</v>
+      </c>
+      <c r="D47">
+        <v>13</v>
       </c>
       <c r="E47">
         <v>12</v>
       </c>
       <c r="F47">
-        <v>11</v>
-      </c>
-      <c r="G47">
         <v>216</v>
       </c>
-      <c r="H47" s="1">
+      <c r="G47" s="1">
         <v>43983</v>
       </c>
-      <c r="I47" t="s">
+      <c r="H47" t="s">
         <v>148</v>
       </c>
-      <c r="J47" s="2">
+      <c r="I47" s="2">
         <v>34906</v>
       </c>
-      <c r="K47">
+      <c r="J47">
         <v>4</v>
       </c>
-      <c r="M47" t="s">
+      <c r="L47" t="s">
         <v>149</v>
       </c>
-      <c r="N47" s="3">
+      <c r="M47" s="3">
         <v>6466000</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A48" t="s">
         <v>119</v>
       </c>
-      <c r="C48">
+      <c r="B48">
         <v>31</v>
       </c>
-      <c r="D48" t="s">
-        <v>305</v>
+      <c r="C48" t="s">
+        <v>299</v>
+      </c>
+      <c r="D48">
+        <v>14</v>
       </c>
       <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>224</v>
+      </c>
+      <c r="G48" s="1">
+        <v>43983</v>
+      </c>
+      <c r="H48" t="s">
+        <v>110</v>
+      </c>
+      <c r="I48" s="2">
+        <v>32625</v>
+      </c>
+      <c r="J48">
+        <v>8</v>
+      </c>
+      <c r="M48" s="3">
+        <v>1050000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A49" t="s">
+        <v>193</v>
+      </c>
+      <c r="B49">
+        <v>25</v>
+      </c>
+      <c r="C49" t="s">
+        <v>300</v>
+      </c>
+      <c r="D49">
         <v>13</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>224</v>
-      </c>
-      <c r="H48" s="1">
-        <v>43983</v>
-      </c>
-      <c r="I48" t="s">
-        <v>110</v>
-      </c>
-      <c r="J48" s="2">
-        <v>32625</v>
-      </c>
-      <c r="K48">
-        <v>8</v>
-      </c>
-      <c r="N48" s="3">
-        <v>1050000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A49">
-        <v>54</v>
-      </c>
-      <c r="B49" t="s">
-        <v>198</v>
-      </c>
-      <c r="C49">
-        <v>25</v>
-      </c>
-      <c r="D49" t="s">
-        <v>306</v>
       </c>
       <c r="E49">
         <v>12</v>
       </c>
       <c r="F49">
-        <v>11</v>
-      </c>
-      <c r="G49">
         <v>215</v>
       </c>
-      <c r="H49" s="1">
+      <c r="G49" s="4">
         <v>43984</v>
       </c>
-      <c r="I49" t="s">
-        <v>200</v>
-      </c>
-      <c r="J49" s="2">
+      <c r="H49" t="s">
+        <v>195</v>
+      </c>
+      <c r="I49" s="2">
         <v>34913</v>
       </c>
-      <c r="K49">
+      <c r="J49">
         <v>2</v>
       </c>
-      <c r="M49" t="s">
-        <v>201</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="L49" t="s">
+        <v>196</v>
+      </c>
+      <c r="M49" s="3">
         <v>750000</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A50">
-        <v>41</v>
-      </c>
-      <c r="B50" t="s">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A50" t="s">
+        <v>301</v>
+      </c>
+      <c r="B50">
+        <v>29</v>
+      </c>
+      <c r="C50" t="s">
+        <v>300</v>
+      </c>
+      <c r="D50">
+        <v>14</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>198</v>
+      </c>
+      <c r="G50" s="1">
+        <v>36678</v>
+      </c>
+      <c r="H50" t="s">
+        <v>302</v>
+      </c>
+      <c r="I50" s="2">
+        <v>33525</v>
+      </c>
+      <c r="J50">
+        <v>4</v>
+      </c>
+      <c r="M50" s="3">
+        <v>910000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A51" t="s">
+        <v>303</v>
+      </c>
+      <c r="B51">
+        <v>23</v>
+      </c>
+      <c r="C51" t="s">
+        <v>300</v>
+      </c>
+      <c r="D51">
+        <v>10</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51">
+        <v>208</v>
+      </c>
+      <c r="G51" s="1">
+        <v>43983</v>
+      </c>
+      <c r="H51" t="s">
+        <v>137</v>
+      </c>
+      <c r="I51" s="2">
+        <v>35667</v>
+      </c>
+      <c r="J51" t="s">
+        <v>60</v>
+      </c>
+      <c r="L51" t="s">
+        <v>304</v>
+      </c>
+      <c r="M51" s="3">
+        <v>610000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A52" t="s">
+        <v>305</v>
+      </c>
+      <c r="B52">
+        <v>22</v>
+      </c>
+      <c r="C52" t="s">
+        <v>151</v>
+      </c>
+      <c r="D52">
+        <v>8</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>190</v>
+      </c>
+      <c r="G52" s="1">
+        <v>43961</v>
+      </c>
+      <c r="H52" t="s">
+        <v>238</v>
+      </c>
+      <c r="I52" s="2">
+        <v>36099</v>
+      </c>
+      <c r="J52" t="s">
+        <v>60</v>
+      </c>
+      <c r="M52" s="3">
+        <v>430588</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A53" t="s">
+        <v>306</v>
+      </c>
+      <c r="B53">
+        <v>26</v>
+      </c>
+      <c r="C53" t="s">
         <v>307</v>
       </c>
-      <c r="C50">
-        <v>29</v>
-      </c>
-      <c r="D50" t="s">
-        <v>306</v>
-      </c>
-      <c r="E50">
+      <c r="D53">
         <v>13</v>
       </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50">
-        <v>198</v>
-      </c>
-      <c r="H50" s="4">
-        <v>36678</v>
-      </c>
-      <c r="I50" t="s">
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>185</v>
+      </c>
+      <c r="G53" s="1">
+        <v>43961</v>
+      </c>
+      <c r="H53" t="s">
         <v>308</v>
       </c>
-      <c r="J50" s="2">
-        <v>33525</v>
-      </c>
-      <c r="K50">
-        <v>4</v>
-      </c>
-      <c r="N50" s="3">
-        <v>910000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A51">
-        <v>32</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="I53" s="2">
+        <v>34549</v>
+      </c>
+      <c r="J53">
+        <v>3</v>
+      </c>
+      <c r="M53" s="3">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A54" t="s">
         <v>309</v>
       </c>
-      <c r="C51">
-        <v>23</v>
-      </c>
-      <c r="D51" t="s">
-        <v>306</v>
-      </c>
-      <c r="E51">
-        <v>9</v>
-      </c>
-      <c r="F51">
-        <v>2</v>
-      </c>
-      <c r="G51">
-        <v>208</v>
-      </c>
-      <c r="H51" s="1">
-        <v>43983</v>
-      </c>
-      <c r="I51" t="s">
-        <v>137</v>
-      </c>
-      <c r="J51" s="2">
-        <v>35667</v>
-      </c>
-      <c r="K51" t="s">
+      <c r="B54">
+        <v>24</v>
+      </c>
+      <c r="C54" t="s">
+        <v>310</v>
+      </c>
+      <c r="D54">
+        <v>14</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>196</v>
+      </c>
+      <c r="G54" s="1">
+        <v>43961</v>
+      </c>
+      <c r="H54" t="s">
+        <v>311</v>
+      </c>
+      <c r="I54" s="2">
+        <v>35404</v>
+      </c>
+      <c r="J54" t="s">
         <v>60</v>
       </c>
-      <c r="M51" t="s">
-        <v>310</v>
-      </c>
-      <c r="N51" s="3">
-        <v>610000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A52">
-        <v>44</v>
-      </c>
-      <c r="B52" t="s">
-        <v>311</v>
-      </c>
-      <c r="C52">
-        <v>22</v>
-      </c>
-      <c r="D52" t="s">
-        <v>151</v>
-      </c>
-      <c r="E52">
-        <v>7</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>190</v>
-      </c>
-      <c r="H52" s="1">
-        <v>43961</v>
-      </c>
-      <c r="I52" t="s">
-        <v>244</v>
-      </c>
-      <c r="J52" s="2">
-        <v>36099</v>
-      </c>
-      <c r="K52" t="s">
-        <v>60</v>
-      </c>
-      <c r="N52" s="3">
-        <v>430588</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A53">
-        <v>7</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="L54" t="s">
         <v>312</v>
       </c>
-      <c r="C53">
-        <v>26</v>
-      </c>
-      <c r="D53" t="s">
-        <v>313</v>
-      </c>
-      <c r="E53">
-        <v>12</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>185</v>
-      </c>
-      <c r="H53" s="1">
-        <v>43961</v>
-      </c>
-      <c r="I53" t="s">
-        <v>314</v>
-      </c>
-      <c r="J53" s="2">
-        <v>34549</v>
-      </c>
-      <c r="K53">
-        <v>3</v>
-      </c>
-      <c r="N53" s="3">
-        <v>750000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A54">
-        <v>4</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="M54" t="s">
         <v>315</v>
-      </c>
-      <c r="C54">
-        <v>24</v>
-      </c>
-      <c r="D54" t="s">
-        <v>316</v>
-      </c>
-      <c r="E54">
-        <v>13</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>196</v>
-      </c>
-      <c r="H54" s="1">
-        <v>43961</v>
-      </c>
-      <c r="I54" t="s">
-        <v>317</v>
-      </c>
-      <c r="J54" s="2">
-        <v>35404</v>
-      </c>
-      <c r="K54" t="s">
-        <v>60</v>
-      </c>
-      <c r="M54" t="s">
-        <v>318</v>
-      </c>
-      <c r="N54" s="3">
-        <v>610000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>